--- a/Project/Phase 2/Sprint3/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint3/Sprint Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\Uni\3 ano\1 semestre\ES\SE2223_57049_59213_60173_60390_60747\Project\Phase 2\Sprint 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\Sophia\Faculdade\ES\ganttprojectstable\Project\Phase 2\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56B1E72-AE76-41BE-AD19-2EAE12DA80F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A77A2B-059E-4ACA-9EB1-D495EB86A2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4632" yWindow="540" windowWidth="17280" windowHeight="11496" xr2:uid="{EC316ADB-A73C-473B-B90B-E37A78668BC1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC316ADB-A73C-473B-B90B-E37A78668BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -93,13 +93,13 @@
     <t>Inicialização do código da tarefa 2 (adicionar ficheiros)</t>
   </si>
   <si>
-    <t>Procura posicionamento do codigo da tarefa 1 (todoList)</t>
-  </si>
-  <si>
-    <t>Procura posicionamento do codigo da tarefa 2 (adicionar ficheiros)</t>
-  </si>
-  <si>
     <t>Inicialização de alguns use cases</t>
+  </si>
+  <si>
+    <t>Procura posicionamento do código da tarefa 1 (todoList)</t>
+  </si>
+  <si>
+    <t>Procura posicionamento do código da tarefa 2 (adicionar ficheiros)</t>
   </si>
 </sst>
 </file>
@@ -151,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -289,11 +289,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,6 +362,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD28F5BD-44A0-4916-BB85-680B9BFFA75D}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>7</v>
@@ -810,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -827,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
@@ -844,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -861,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -957,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -973,7 +1003,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
@@ -989,7 +1019,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -1005,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
@@ -1020,13 +1050,13 @@
       <c r="B18" s="4">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1"/>
